--- a/app接口/新华网.xlsx
+++ b/app接口/新华网.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49BB25A-EA4D-4411-AD88-E96585144AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE0843-C744-4B39-A850-D8234B55B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,86 +73,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinHuaUuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码，1-N开始，超出，articles内容为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别，0为全部、1为文章、2为视频、3为音频。全部包含所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device-token</t>
+  </si>
+  <si>
+    <t>设备表示，可为：84ad6f513e0068624b4795d636565ff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议设为：okhttp/3.10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articleUuid</t>
+  </si>
+  <si>
+    <t>文章id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备标识，可为：84ad6f513e0068624b4795d636565ff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（非必须）可为：okhttp/3.10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://my-api.app.xinhuanet.com/1.0/article/search/xinhuahao?pageNum=2&amp;keyword=中</t>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索关键词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码1-N,超出后返回json数据data字段为空列表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://my-api.app.xinhuanet.com/1.0/article/xinhua/detail?xinHuaUuid=5cc5b275-c42a-4955-a54c-6896e8dd9b79&amp;pageNum=2&amp;type=0</t>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinHuaUuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页码，1-N开始，超出，articles内容为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别，0为全部、1为文章、2为视频、3为音频。全部包含所有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>device-token</t>
-  </si>
-  <si>
-    <t>设备表示，可为：84ad6f513e0068624b4795d636565ff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User-Agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议设为：okhttp/3.10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.8.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://my-api.app.xinhuanet.com/1.0/article/detail2?articleUuid=93b0881b-c607-4314-8279-2b6176bb27ee</t>
-  </si>
-  <si>
-    <t>articleUuid</t>
-  </si>
-  <si>
-    <t>文章id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备标识，可为：84ad6f513e0068624b4795d636565ff4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（非必须）可为：okhttp/3.10.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://my-api.app.xinhuanet.com/1.0/article/search/xinhuahao?pageNum=2&amp;keyword=中</t>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索关键词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页码1-N,超出后返回json数据data字段为空列表。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +188,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,10 +240,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,16 +253,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,9 +270,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,7 +557,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -602,77 +621,80 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
         <v>44371</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2BCBA14C-5D83-4B17-BD0E-7ED52F4A5E2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -681,7 +703,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -745,48 +767,48 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44371</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5">
-        <v>44371</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -798,8 +820,11 @@
     <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{6032B9D3-A587-4718-82DC-53EA6037DD66}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -872,63 +897,63 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6">
         <v>44371</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app接口/新华网.xlsx
+++ b/app接口/新华网.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gusheng\Desktop\notes\app接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CE0843-C744-4B39-A850-D8234B55B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE26680-D925-4626-A042-1CAEB8F1B750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户翻页接口" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>https://my-api.app.xinhuanet.com/1.0/article/detail2?articleUuid=93b0881b-c607-4314-8279-2b6176bb27ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -255,10 +267,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -268,9 +286,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,144 +569,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859709FD-0F55-4BE4-B93E-5E7CB0BED241}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:14" ht="96.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="8">
         <v>44371</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="s">
+    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2BCBA14C-5D83-4B17-BD0E-7ED52F4A5E2C}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2BCBA14C-5D83-4B17-BD0E-7ED52F4A5E2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -700,128 +725,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:14" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="8">
         <v>44371</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="I3" s="1" t="s">
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{6032B9D3-A587-4718-82DC-53EA6037DD66}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6032B9D3-A587-4718-82DC-53EA6037DD66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -830,127 +864,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8274CF-6681-4CE1-BB4A-350B5C0F2936}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="69" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6">
-        <v>44371</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
